--- a/Template_Bulk_update_ticket_status (1).xlsx
+++ b/Template_Bulk_update_ticket_status (1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kangsong.yao/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55E0D6C2-DDAD-9043-8919-504E24110B84}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BD24FEC-AB07-8544-88AA-D00D36A305A7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="19600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,26 +21,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Ticket ID*</t>
   </si>
   <si>
     <t>Status to Update*</t>
-  </si>
-  <si>
-    <t>e.g：1234</t>
-  </si>
-  <si>
-    <t>choose one from these options, input digit only
-1 = Pending
-2 = Working
-3 = Icebox
-4 = Completed
-5 = Cancelled</t>
-  </si>
-  <si>
-    <t>Please delete this row when upload</t>
   </si>
   <si>
     <t>Status</t>
@@ -68,7 +54,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -88,12 +74,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -107,7 +87,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -118,18 +98,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFE599"/>
         <bgColor rgb="FFFFE599"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD9D9D9"/>
-        <bgColor rgb="FFD9D9D9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF3F3F3"/>
-        <bgColor rgb="FFF3F3F3"/>
       </patternFill>
     </fill>
     <fill>
@@ -178,22 +146,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -201,7 +160,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -423,16 +382,16 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C692"/>
+  <dimension ref="A1:C691"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="23.1640625" customWidth="1"/>
-    <col min="2" max="2" width="89.83203125" customWidth="1"/>
+    <col min="1" max="1" width="30.33203125" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" customWidth="1"/>
     <col min="3" max="3" width="22.83203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -445,5539 +404,5528 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>4</v>
-      </c>
+      <c r="A2" s="3">
+        <v>2222</v>
+      </c>
+      <c r="B2">
+        <v>333</v>
+      </c>
+      <c r="C2" s="3"/>
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A3" s="6">
-        <v>2222</v>
-      </c>
-      <c r="B3">
-        <v>333</v>
-      </c>
-      <c r="C3" s="6"/>
+      <c r="A3" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B3" s="10">
+        <v>333</v>
+      </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A4" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B4" s="13">
+      <c r="A4" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B4" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A5" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B5" s="13">
+      <c r="A5" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B5" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A6" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B6" s="13">
+      <c r="A6" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B6" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A7" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B7" s="13">
+      <c r="A7" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B7" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A8" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B8" s="13">
+      <c r="A8" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B8" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A9" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B9" s="13">
+      <c r="A9" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B9" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A10" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B10" s="13">
+      <c r="A10" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B10" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A11" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B11" s="13">
+      <c r="A11" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B11" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A12" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B12" s="13">
+      <c r="A12" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B12" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A13" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B13" s="13">
+      <c r="A13" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B13" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A14" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B14" s="13">
+      <c r="A14" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B14" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A15" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B15" s="13">
+      <c r="A15" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B15" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A16" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B16" s="13">
+      <c r="A16" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B16" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A17" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B17" s="13">
+      <c r="A17" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B17" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A18" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B18" s="13">
+      <c r="A18" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B18" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A19" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B19" s="13">
+      <c r="A19" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B19" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A20" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B20" s="13">
+      <c r="A20" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B20" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A21" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B21" s="13">
+      <c r="A21" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B21" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A22" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B22" s="13">
+      <c r="A22" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B22" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A23" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B23" s="13">
+      <c r="A23" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B23" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A24" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B24" s="13">
+      <c r="A24" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B24" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A25" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B25" s="13">
+      <c r="A25" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B25" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A26" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B26" s="13">
+      <c r="A26" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B26" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A27" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B27" s="13">
+      <c r="A27" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B27" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A28" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B28" s="13">
+      <c r="A28" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B28" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A29" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B29" s="13">
+      <c r="A29" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B29" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A30" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B30" s="13">
+      <c r="A30" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B30" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A31" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B31" s="13">
+      <c r="A31" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B31" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A32" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B32" s="13">
+      <c r="A32" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B32" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A33" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B33" s="13">
+      <c r="A33" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B33" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A34" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B34" s="13">
+      <c r="A34" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B34" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A35" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B35" s="13">
+      <c r="A35" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B35" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A36" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B36" s="13">
+      <c r="A36" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B36" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A37" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B37" s="13">
+      <c r="A37" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B37" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A38" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B38" s="13">
+      <c r="A38" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B38" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A39" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B39" s="13">
+      <c r="A39" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B39" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A40" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B40" s="13">
+      <c r="A40" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B40" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A41" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B41" s="13">
+      <c r="A41" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B41" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A42" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B42" s="13">
+      <c r="A42" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B42" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A43" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B43" s="13">
+      <c r="A43" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B43" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A44" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B44" s="13">
+      <c r="A44" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B44" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A45" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B45" s="13">
+      <c r="A45" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B45" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A46" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B46" s="13">
+      <c r="A46" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B46" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A47" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B47" s="13">
+      <c r="A47" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B47" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A48" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B48" s="13">
+      <c r="A48" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B48" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A49" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B49" s="13">
+      <c r="A49" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B49" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A50" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B50" s="13">
+      <c r="A50" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B50" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A51" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B51" s="13">
+      <c r="A51" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B51" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A52" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B52" s="13">
+      <c r="A52" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B52" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A53" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B53" s="13">
+      <c r="A53" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B53" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A54" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B54" s="13">
+      <c r="A54" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B54" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A55" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B55" s="13">
+      <c r="A55" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B55" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A56" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B56" s="13">
+      <c r="A56" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B56" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A57" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B57" s="13">
+      <c r="A57" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B57" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A58" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B58" s="13">
+      <c r="A58" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B58" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A59" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B59" s="13">
+      <c r="A59" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B59" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A60" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B60" s="13">
+      <c r="A60" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B60" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A61" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B61" s="13">
+      <c r="A61" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B61" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A62" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B62" s="13">
+      <c r="A62" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B62" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A63" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B63" s="13">
+      <c r="A63" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B63" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A64" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B64" s="13">
+      <c r="A64" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B64" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A65" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B65" s="13">
+      <c r="A65" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B65" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A66" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B66" s="13">
+      <c r="A66" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B66" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A67" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B67" s="13">
+      <c r="A67" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B67" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A68" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B68" s="13">
+      <c r="A68" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B68" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A69" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B69" s="13">
+      <c r="A69" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B69" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A70" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B70" s="13">
+      <c r="A70" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B70" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A71" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B71" s="13">
+      <c r="A71" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B71" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A72" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B72" s="13">
+      <c r="A72" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B72" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A73" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B73" s="13">
+      <c r="A73" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B73" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A74" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B74" s="13">
+      <c r="A74" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B74" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A75" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B75" s="13">
+      <c r="A75" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B75" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A76" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B76" s="13">
+      <c r="A76" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B76" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A77" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B77" s="13">
+      <c r="A77" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B77" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A78" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B78" s="13">
+      <c r="A78" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B78" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A79" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B79" s="13">
+      <c r="A79" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B79" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A80" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B80" s="13">
+      <c r="A80" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B80" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A81" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B81" s="13">
+      <c r="A81" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B81" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A82" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B82" s="13">
+      <c r="A82" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B82" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A83" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B83" s="13">
+      <c r="A83" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B83" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A84" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B84" s="13">
+      <c r="A84" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B84" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A85" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B85" s="13">
+      <c r="A85" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B85" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A86" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B86" s="13">
+      <c r="A86" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B86" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A87" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B87" s="13">
+      <c r="A87" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B87" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A88" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B88" s="13">
+      <c r="A88" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B88" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A89" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B89" s="13">
+      <c r="A89" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B89" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A90" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B90" s="13">
+      <c r="A90" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B90" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A91" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B91" s="13">
+      <c r="A91" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B91" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A92" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B92" s="13">
+      <c r="A92" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B92" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A93" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B93" s="13">
+      <c r="A93" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B93" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A94" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B94" s="13">
+      <c r="A94" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B94" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A95" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B95" s="13">
+      <c r="A95" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B95" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A96" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B96" s="13">
+      <c r="A96" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B96" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A97" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B97" s="13">
+      <c r="A97" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B97" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A98" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B98" s="13">
+      <c r="A98" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B98" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A99" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B99" s="13">
+      <c r="A99" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B99" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A100" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B100" s="13">
+      <c r="A100" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B100" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A101" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B101" s="13">
+      <c r="A101" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B101" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A102" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B102" s="13">
+      <c r="A102" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B102" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A103" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B103" s="13">
+      <c r="A103" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B103" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A104" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B104" s="13">
+      <c r="A104" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B104" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="105" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A105" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B105" s="13">
+      <c r="A105" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B105" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A106" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B106" s="13">
+      <c r="A106" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B106" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="107" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A107" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B107" s="13">
+      <c r="A107" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B107" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A108" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B108" s="13">
+      <c r="A108" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B108" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="109" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A109" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B109" s="13">
+      <c r="A109" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B109" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A110" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B110" s="13">
+      <c r="A110" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B110" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="111" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A111" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B111" s="13">
+      <c r="A111" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B111" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="112" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A112" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B112" s="13">
+      <c r="A112" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B112" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="113" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A113" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B113" s="13">
+      <c r="A113" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B113" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A114" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B114" s="13">
+      <c r="A114" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B114" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="115" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A115" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B115" s="13">
+      <c r="A115" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B115" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="116" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A116" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B116" s="13">
+      <c r="A116" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B116" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="117" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A117" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B117" s="13">
+      <c r="A117" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B117" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="118" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A118" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B118" s="13">
+      <c r="A118" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B118" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="119" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A119" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B119" s="13">
+      <c r="A119" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B119" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="120" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A120" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B120" s="13">
+      <c r="A120" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B120" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="121" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A121" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B121" s="13">
+      <c r="A121" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B121" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="122" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A122" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B122" s="13">
+      <c r="A122" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B122" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A123" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B123" s="13">
+      <c r="A123" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B123" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="124" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A124" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B124" s="13">
+      <c r="A124" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B124" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="125" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A125" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B125" s="13">
+      <c r="A125" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B125" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="126" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A126" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B126" s="13">
+      <c r="A126" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B126" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="127" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A127" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B127" s="13">
+      <c r="A127" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B127" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="128" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A128" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B128" s="13">
+      <c r="A128" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B128" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="129" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A129" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B129" s="13">
+      <c r="A129" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B129" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="130" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A130" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B130" s="13">
+      <c r="A130" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B130" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="131" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A131" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B131" s="13">
+      <c r="A131" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B131" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="132" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A132" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B132" s="13">
+      <c r="A132" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B132" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="133" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A133" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B133" s="13">
+      <c r="A133" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B133" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="134" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A134" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B134" s="13">
+      <c r="A134" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B134" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="135" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A135" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B135" s="13">
+      <c r="A135" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B135" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="136" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A136" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B136" s="13">
+      <c r="A136" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B136" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="137" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A137" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B137" s="13">
+      <c r="A137" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B137" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="138" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A138" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B138" s="13">
+      <c r="A138" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B138" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="139" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A139" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B139" s="13">
+      <c r="A139" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B139" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="140" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A140" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B140" s="13">
+      <c r="A140" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B140" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="141" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A141" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B141" s="13">
+      <c r="A141" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B141" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="142" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A142" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B142" s="13">
+      <c r="A142" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B142" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="143" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A143" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B143" s="13">
+      <c r="A143" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B143" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="144" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A144" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B144" s="13">
+      <c r="A144" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B144" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="145" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A145" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B145" s="13">
+      <c r="A145" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B145" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="146" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A146" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B146" s="13">
+      <c r="A146" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B146" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="147" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A147" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B147" s="13">
+      <c r="A147" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B147" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="148" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A148" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B148" s="13">
+      <c r="A148" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B148" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="149" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A149" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B149" s="13">
+      <c r="A149" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B149" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="150" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A150" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B150" s="13">
+      <c r="A150" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B150" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="151" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A151" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B151" s="13">
+      <c r="A151" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B151" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="152" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A152" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B152" s="13">
+      <c r="A152" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B152" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="153" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A153" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B153" s="13">
+      <c r="A153" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B153" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="154" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A154" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B154" s="13">
+      <c r="A154" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B154" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="155" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A155" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B155" s="13">
+      <c r="A155" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B155" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="156" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A156" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B156" s="13">
+      <c r="A156" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B156" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="157" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A157" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B157" s="13">
+      <c r="A157" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B157" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="158" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A158" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B158" s="13">
+      <c r="A158" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B158" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="159" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A159" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B159" s="13">
+      <c r="A159" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B159" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="160" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A160" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B160" s="13">
+      <c r="A160" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B160" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="161" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A161" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B161" s="13">
+      <c r="A161" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B161" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="162" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A162" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B162" s="13">
+      <c r="A162" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B162" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="163" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A163" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B163" s="13">
+      <c r="A163" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B163" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="164" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A164" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B164" s="13">
+      <c r="A164" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B164" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="165" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A165" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B165" s="13">
+      <c r="A165" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B165" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="166" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A166" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B166" s="13">
+      <c r="A166" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B166" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="167" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A167" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B167" s="13">
+      <c r="A167" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B167" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="168" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A168" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B168" s="13">
+      <c r="A168" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B168" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="169" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A169" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B169" s="13">
+      <c r="A169" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B169" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="170" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A170" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B170" s="13">
+      <c r="A170" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B170" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="171" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A171" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B171" s="13">
+      <c r="A171" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B171" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="172" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A172" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B172" s="13">
+      <c r="A172" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B172" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="173" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A173" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B173" s="13">
+      <c r="A173" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B173" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="174" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A174" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B174" s="13">
+      <c r="A174" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B174" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="175" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A175" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B175" s="13">
+      <c r="A175" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B175" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="176" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A176" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B176" s="13">
+      <c r="A176" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B176" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="177" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A177" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B177" s="13">
+      <c r="A177" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B177" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="178" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A178" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B178" s="13">
+      <c r="A178" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B178" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="179" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A179" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B179" s="13">
+      <c r="A179" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B179" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="180" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A180" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B180" s="13">
+      <c r="A180" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B180" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="181" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A181" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B181" s="13">
+      <c r="A181" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B181" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="182" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A182" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B182" s="13">
+      <c r="A182" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B182" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="183" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A183" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B183" s="13">
+      <c r="A183" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B183" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="184" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A184" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B184" s="13">
+      <c r="A184" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B184" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="185" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A185" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B185" s="13">
+      <c r="A185" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B185" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="186" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A186" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B186" s="13">
+      <c r="A186" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B186" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="187" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A187" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B187" s="13">
+      <c r="A187" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B187" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="188" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A188" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B188" s="13">
+      <c r="A188" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B188" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="189" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A189" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B189" s="13">
+      <c r="A189" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B189" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="190" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A190" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B190" s="13">
+      <c r="A190" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B190" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="191" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A191" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B191" s="13">
+      <c r="A191" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B191" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="192" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A192" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B192" s="13">
+      <c r="A192" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B192" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="193" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A193" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B193" s="13">
+      <c r="A193" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B193" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="194" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A194" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B194" s="13">
+      <c r="A194" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B194" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="195" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A195" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B195" s="13">
+      <c r="A195" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B195" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="196" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A196" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B196" s="13">
+      <c r="A196" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B196" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="197" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A197" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B197" s="13">
+      <c r="A197" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B197" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="198" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A198" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B198" s="13">
+      <c r="A198" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B198" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="199" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A199" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B199" s="13">
+      <c r="A199" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B199" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="200" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A200" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B200" s="13">
+      <c r="A200" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B200" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="201" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A201" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B201" s="13">
+      <c r="A201" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B201" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="202" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A202" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B202" s="13">
+      <c r="A202" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B202" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="203" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A203" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B203" s="13">
+      <c r="A203" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B203" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="204" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A204" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B204" s="13">
+      <c r="A204" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B204" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="205" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A205" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B205" s="13">
+      <c r="A205" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B205" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="206" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A206" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B206" s="13">
+      <c r="A206" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B206" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="207" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A207" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B207" s="13">
+      <c r="A207" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B207" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="208" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A208" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B208" s="13">
+      <c r="A208" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B208" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="209" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A209" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B209" s="13">
+      <c r="A209" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B209" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="210" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A210" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B210" s="13">
+      <c r="A210" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B210" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="211" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A211" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B211" s="13">
+      <c r="A211" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B211" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="212" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A212" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B212" s="13">
+      <c r="A212" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B212" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="213" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A213" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B213" s="13">
+      <c r="A213" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B213" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="214" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A214" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B214" s="13">
+      <c r="A214" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B214" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="215" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A215" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B215" s="13">
+      <c r="A215" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B215" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="216" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A216" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B216" s="13">
+      <c r="A216" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B216" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="217" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A217" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B217" s="13">
+      <c r="A217" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B217" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="218" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A218" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B218" s="13">
+      <c r="A218" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B218" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="219" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A219" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B219" s="13">
+      <c r="A219" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B219" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="220" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A220" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B220" s="13">
+      <c r="A220" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B220" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="221" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A221" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B221" s="13">
+      <c r="A221" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B221" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="222" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A222" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B222" s="13">
+      <c r="A222" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B222" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="223" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A223" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B223" s="13">
+      <c r="A223" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B223" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="224" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A224" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B224" s="13">
+      <c r="A224" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B224" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="225" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A225" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B225" s="13">
+      <c r="A225" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B225" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="226" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A226" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B226" s="13">
+      <c r="A226" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B226" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="227" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A227" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B227" s="13">
+      <c r="A227" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B227" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="228" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A228" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B228" s="13">
+      <c r="A228" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B228" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="229" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A229" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B229" s="13">
+      <c r="A229" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B229" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="230" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A230" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B230" s="13">
+      <c r="A230" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B230" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="231" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A231" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B231" s="13">
+      <c r="A231" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B231" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="232" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A232" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B232" s="13">
+      <c r="A232" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B232" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="233" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A233" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B233" s="13">
+      <c r="A233" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B233" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="234" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A234" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B234" s="13">
+      <c r="A234" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B234" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="235" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A235" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B235" s="13">
+      <c r="A235" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B235" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="236" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A236" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B236" s="13">
+      <c r="A236" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B236" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="237" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A237" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B237" s="13">
+      <c r="A237" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B237" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="238" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A238" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B238" s="13">
+      <c r="A238" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B238" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="239" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A239" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B239" s="13">
+      <c r="A239" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B239" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="240" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A240" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B240" s="13">
+      <c r="A240" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B240" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="241" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A241" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B241" s="13">
+      <c r="A241" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B241" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="242" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A242" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B242" s="13">
+      <c r="A242" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B242" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="243" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A243" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B243" s="13">
+      <c r="A243" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B243" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="244" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A244" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B244" s="13">
+      <c r="A244" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B244" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="245" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A245" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B245" s="13">
+      <c r="A245" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B245" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="246" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A246" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B246" s="13">
+      <c r="A246" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B246" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="247" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A247" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B247" s="13">
+      <c r="A247" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B247" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="248" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A248" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B248" s="13">
+      <c r="A248" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B248" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="249" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A249" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B249" s="13">
+      <c r="A249" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B249" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="250" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A250" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B250" s="13">
+      <c r="A250" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B250" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="251" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A251" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B251" s="13">
+      <c r="A251" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B251" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="252" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A252" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B252" s="13">
+      <c r="A252" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B252" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="253" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A253" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B253" s="13">
+      <c r="A253" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B253" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="254" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A254" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B254" s="13">
+      <c r="A254" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B254" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="255" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A255" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B255" s="13">
+      <c r="A255" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B255" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="256" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A256" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B256" s="13">
+      <c r="A256" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B256" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="257" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A257" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B257" s="13">
+      <c r="A257" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B257" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="258" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A258" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B258" s="13">
+      <c r="A258" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B258" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="259" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A259" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B259" s="13">
+      <c r="A259" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B259" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="260" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A260" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B260" s="13">
+      <c r="A260" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B260" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="261" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A261" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B261" s="13">
+      <c r="A261" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B261" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="262" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A262" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B262" s="13">
+      <c r="A262" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B262" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="263" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A263" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B263" s="13">
+      <c r="A263" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B263" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="264" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A264" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B264" s="13">
+      <c r="A264" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B264" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="265" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A265" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B265" s="13">
+      <c r="A265" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B265" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="266" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A266" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B266" s="13">
+      <c r="A266" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B266" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="267" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A267" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B267" s="13">
+      <c r="A267" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B267" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="268" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A268" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B268" s="13">
+      <c r="A268" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B268" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="269" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A269" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B269" s="13">
+      <c r="A269" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B269" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="270" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A270" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B270" s="13">
+      <c r="A270" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B270" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="271" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A271" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B271" s="13">
+      <c r="A271" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B271" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="272" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A272" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B272" s="13">
+      <c r="A272" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B272" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="273" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A273" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B273" s="13">
+      <c r="A273" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B273" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="274" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A274" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B274" s="13">
+      <c r="A274" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B274" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="275" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A275" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B275" s="13">
+      <c r="A275" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B275" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="276" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A276" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B276" s="13">
+      <c r="A276" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B276" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="277" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A277" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B277" s="13">
+      <c r="A277" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B277" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="278" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A278" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B278" s="13">
+      <c r="A278" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B278" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="279" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A279" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B279" s="13">
+      <c r="A279" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B279" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="280" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A280" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B280" s="13">
+      <c r="A280" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B280" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="281" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A281" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B281" s="13">
+      <c r="A281" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B281" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="282" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A282" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B282" s="13">
+      <c r="A282" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B282" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="283" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A283" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B283" s="13">
+      <c r="A283" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B283" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="284" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A284" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B284" s="13">
+      <c r="A284" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B284" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="285" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A285" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B285" s="13">
+      <c r="A285" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B285" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="286" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A286" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B286" s="13">
+      <c r="A286" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B286" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="287" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A287" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B287" s="13">
+      <c r="A287" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B287" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="288" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A288" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B288" s="13">
+      <c r="A288" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B288" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="289" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A289" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B289" s="13">
+      <c r="A289" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B289" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="290" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A290" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B290" s="13">
+      <c r="A290" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B290" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="291" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A291" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B291" s="13">
+      <c r="A291" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B291" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="292" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A292" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B292" s="13">
+      <c r="A292" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B292" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="293" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A293" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B293" s="13">
+      <c r="A293" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B293" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="294" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A294" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B294" s="13">
+      <c r="A294" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B294" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="295" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A295" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B295" s="13">
+      <c r="A295" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B295" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="296" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A296" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B296" s="13">
+      <c r="A296" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B296" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="297" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A297" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B297" s="13">
+      <c r="A297" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B297" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="298" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A298" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B298" s="13">
+      <c r="A298" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B298" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="299" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A299" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B299" s="13">
+      <c r="A299" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B299" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="300" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A300" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B300" s="13">
+      <c r="A300" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B300" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="301" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A301" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B301" s="13">
+      <c r="A301" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B301" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="302" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A302" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B302" s="13">
+      <c r="A302" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B302" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="303" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A303" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B303" s="13">
+      <c r="A303" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B303" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="304" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A304" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B304" s="13">
+      <c r="A304" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B304" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="305" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A305" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B305" s="13">
+      <c r="A305" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B305" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="306" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A306" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B306" s="13">
+      <c r="A306" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B306" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="307" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A307" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B307" s="13">
+      <c r="A307" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B307" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="308" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A308" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B308" s="13">
+      <c r="A308" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B308" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="309" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A309" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B309" s="13">
+      <c r="A309" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B309" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="310" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A310" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B310" s="13">
+      <c r="A310" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B310" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="311" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A311" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B311" s="13">
+      <c r="A311" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B311" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="312" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A312" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B312" s="13">
+      <c r="A312" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B312" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="313" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A313" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B313" s="13">
+      <c r="A313" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B313" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="314" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A314" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B314" s="13">
+      <c r="A314" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B314" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="315" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A315" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B315" s="13">
+      <c r="A315" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B315" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="316" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A316" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B316" s="13">
+      <c r="A316" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B316" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="317" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A317" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B317" s="13">
+      <c r="A317" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B317" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="318" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A318" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B318" s="13">
+      <c r="A318" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B318" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="319" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A319" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B319" s="13">
+      <c r="A319" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B319" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="320" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A320" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B320" s="13">
+      <c r="A320" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B320" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="321" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A321" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B321" s="13">
+      <c r="A321" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B321" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="322" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A322" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B322" s="13">
+      <c r="A322" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B322" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="323" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A323" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B323" s="13">
+      <c r="A323" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B323" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="324" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A324" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B324" s="13">
+      <c r="A324" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B324" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="325" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A325" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B325" s="13">
+      <c r="A325" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B325" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="326" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A326" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B326" s="13">
+      <c r="A326" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B326" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="327" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A327" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B327" s="13">
+      <c r="A327" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B327" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="328" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A328" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B328" s="13">
+      <c r="A328" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B328" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="329" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A329" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B329" s="13">
+      <c r="A329" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B329" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="330" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A330" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B330" s="13">
+      <c r="A330" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B330" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="331" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A331" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B331" s="13">
+      <c r="A331" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B331" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="332" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A332" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B332" s="13">
+      <c r="A332" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B332" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="333" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A333" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B333" s="13">
+      <c r="A333" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B333" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="334" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A334" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B334" s="13">
+      <c r="A334" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B334" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="335" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A335" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B335" s="13">
+      <c r="A335" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B335" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="336" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A336" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B336" s="13">
+      <c r="A336" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B336" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="337" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A337" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B337" s="13">
+      <c r="A337" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B337" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="338" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A338" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B338" s="13">
+      <c r="A338" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B338" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="339" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A339" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B339" s="13">
+      <c r="A339" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B339" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="340" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A340" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B340" s="13">
+      <c r="A340" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B340" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="341" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A341" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B341" s="13">
+      <c r="A341" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B341" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="342" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A342" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B342" s="13">
+      <c r="A342" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B342" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="343" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A343" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B343" s="13">
+      <c r="A343" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B343" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="344" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A344" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B344" s="13">
+      <c r="A344" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B344" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="345" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A345" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B345" s="13">
+      <c r="A345" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B345" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="346" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A346" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B346" s="13">
+      <c r="A346" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B346" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="347" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A347" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B347" s="13">
+      <c r="A347" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B347" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="348" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A348" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B348" s="13">
+      <c r="A348" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B348" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="349" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A349" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B349" s="13">
+      <c r="A349" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B349" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="350" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A350" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B350" s="13">
+      <c r="A350" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B350" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="351" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A351" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B351" s="13">
+      <c r="A351" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B351" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="352" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A352" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B352" s="13">
+      <c r="A352" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B352" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="353" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A353" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B353" s="13">
+      <c r="A353" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B353" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="354" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A354" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B354" s="13">
+      <c r="A354" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B354" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="355" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A355" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B355" s="13">
+      <c r="A355" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B355" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="356" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A356" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B356" s="13">
+      <c r="A356" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B356" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="357" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A357" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B357" s="13">
+      <c r="A357" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B357" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="358" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A358" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B358" s="13">
+      <c r="A358" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B358" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="359" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A359" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B359" s="13">
+      <c r="A359" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B359" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="360" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A360" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B360" s="13">
+      <c r="A360" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B360" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="361" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A361" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B361" s="13">
+      <c r="A361" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B361" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="362" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A362" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B362" s="13">
+      <c r="A362" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B362" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="363" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A363" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B363" s="13">
+      <c r="A363" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B363" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="364" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A364" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B364" s="13">
+      <c r="A364" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B364" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="365" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A365" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B365" s="13">
+      <c r="A365" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B365" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="366" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A366" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B366" s="13">
+      <c r="A366" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B366" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="367" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A367" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B367" s="13">
+      <c r="A367" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B367" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="368" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A368" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B368" s="13">
+      <c r="A368" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B368" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="369" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A369" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B369" s="13">
+      <c r="A369" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B369" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="370" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A370" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B370" s="13">
+      <c r="A370" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B370" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="371" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A371" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B371" s="13">
+      <c r="A371" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B371" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="372" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A372" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B372" s="13">
+      <c r="A372" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B372" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="373" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A373" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B373" s="13">
+      <c r="A373" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B373" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="374" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A374" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B374" s="13">
+      <c r="A374" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B374" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="375" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A375" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B375" s="13">
+      <c r="A375" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B375" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="376" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A376" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B376" s="13">
+      <c r="A376" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B376" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="377" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A377" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B377" s="13">
+      <c r="A377" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B377" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="378" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A378" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B378" s="13">
+      <c r="A378" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B378" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="379" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A379" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B379" s="13">
+      <c r="A379" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B379" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="380" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A380" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B380" s="13">
+      <c r="A380" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B380" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="381" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A381" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B381" s="13">
+      <c r="A381" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B381" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="382" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A382" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B382" s="13">
+      <c r="A382" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B382" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="383" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A383" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B383" s="13">
+      <c r="A383" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B383" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="384" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A384" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B384" s="13">
+      <c r="A384" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B384" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="385" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A385" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B385" s="13">
+      <c r="A385" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B385" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="386" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A386" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B386" s="13">
+      <c r="A386" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B386" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="387" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A387" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B387" s="13">
+      <c r="A387" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B387" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="388" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A388" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B388" s="13">
+      <c r="A388" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B388" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="389" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A389" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B389" s="13">
+      <c r="A389" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B389" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="390" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A390" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B390" s="13">
+      <c r="A390" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B390" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="391" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A391" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B391" s="13">
+      <c r="A391" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B391" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="392" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A392" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B392" s="13">
+      <c r="A392" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B392" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="393" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A393" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B393" s="13">
+      <c r="A393" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B393" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="394" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A394" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B394" s="13">
+      <c r="A394" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B394" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="395" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A395" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B395" s="13">
+      <c r="A395" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B395" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="396" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A396" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B396" s="13">
+      <c r="A396" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B396" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="397" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A397" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B397" s="13">
+      <c r="A397" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B397" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="398" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A398" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B398" s="13">
+      <c r="A398" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B398" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="399" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A399" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B399" s="13">
+      <c r="A399" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B399" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="400" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A400" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B400" s="13">
+      <c r="A400" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B400" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="401" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A401" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B401" s="13">
+      <c r="A401" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B401" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="402" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A402" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B402" s="13">
+      <c r="A402" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B402" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="403" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A403" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B403" s="13">
+      <c r="A403" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B403" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="404" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A404" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B404" s="13">
+      <c r="A404" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B404" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="405" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A405" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B405" s="13">
+      <c r="A405" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B405" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="406" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A406" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B406" s="13">
+      <c r="A406" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B406" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="407" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A407" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B407" s="13">
+      <c r="A407" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B407" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="408" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A408" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B408" s="13">
+      <c r="A408" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B408" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="409" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A409" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B409" s="13">
+      <c r="A409" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B409" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="410" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A410" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B410" s="13">
+      <c r="A410" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B410" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="411" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A411" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B411" s="13">
+      <c r="A411" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B411" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="412" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A412" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B412" s="13">
+      <c r="A412" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B412" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="413" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A413" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B413" s="13">
+      <c r="A413" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B413" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="414" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A414" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B414" s="13">
+      <c r="A414" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B414" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="415" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A415" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B415" s="13">
+      <c r="A415" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B415" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="416" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A416" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B416" s="13">
+      <c r="A416" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B416" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="417" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A417" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B417" s="13">
+      <c r="A417" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B417" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="418" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A418" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B418" s="13">
+      <c r="A418" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B418" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="419" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A419" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B419" s="13">
+      <c r="A419" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B419" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="420" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A420" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B420" s="13">
+      <c r="A420" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B420" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="421" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A421" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B421" s="13">
+      <c r="A421" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B421" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="422" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A422" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B422" s="13">
+      <c r="A422" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B422" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="423" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A423" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B423" s="13">
+      <c r="A423" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B423" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="424" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A424" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B424" s="13">
+      <c r="A424" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B424" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="425" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A425" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B425" s="13">
+      <c r="A425" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B425" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="426" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A426" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B426" s="13">
+      <c r="A426" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B426" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="427" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A427" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B427" s="13">
+      <c r="A427" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B427" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="428" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A428" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B428" s="13">
+      <c r="A428" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B428" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="429" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A429" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B429" s="13">
+      <c r="A429" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B429" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="430" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A430" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B430" s="13">
+      <c r="A430" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B430" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="431" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A431" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B431" s="13">
+      <c r="A431" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B431" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="432" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A432" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B432" s="13">
+      <c r="A432" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B432" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="433" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A433" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B433" s="13">
+      <c r="A433" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B433" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="434" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A434" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B434" s="13">
+      <c r="A434" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B434" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="435" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A435" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B435" s="13">
+      <c r="A435" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B435" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="436" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A436" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B436" s="13">
+      <c r="A436" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B436" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="437" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A437" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B437" s="13">
+      <c r="A437" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B437" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="438" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A438" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B438" s="13">
+      <c r="A438" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B438" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="439" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A439" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B439" s="13">
+      <c r="A439" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B439" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="440" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A440" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B440" s="13">
+      <c r="A440" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B440" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="441" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A441" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B441" s="13">
+      <c r="A441" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B441" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="442" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A442" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B442" s="13">
+      <c r="A442" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B442" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="443" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A443" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B443" s="13">
+      <c r="A443" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B443" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="444" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A444" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B444" s="13">
+      <c r="A444" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B444" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="445" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A445" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B445" s="13">
+      <c r="A445" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B445" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="446" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A446" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B446" s="13">
+      <c r="A446" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B446" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="447" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A447" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B447" s="13">
+      <c r="A447" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B447" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="448" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A448" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B448" s="13">
+      <c r="A448" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B448" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="449" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A449" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B449" s="13">
+      <c r="A449" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B449" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="450" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A450" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B450" s="13">
+      <c r="A450" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B450" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="451" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A451" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B451" s="13">
+      <c r="A451" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B451" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="452" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A452" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B452" s="13">
+      <c r="A452" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B452" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="453" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A453" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B453" s="13">
+      <c r="A453" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B453" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="454" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A454" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B454" s="13">
+      <c r="A454" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B454" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="455" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A455" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B455" s="13">
+      <c r="A455" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B455" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="456" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A456" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B456" s="13">
+      <c r="A456" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B456" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="457" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A457" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B457" s="13">
+      <c r="A457" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B457" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="458" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A458" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B458" s="13">
+      <c r="A458" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B458" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="459" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A459" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B459" s="13">
+      <c r="A459" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B459" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="460" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A460" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B460" s="13">
+      <c r="A460" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B460" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="461" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A461" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B461" s="13">
+      <c r="A461" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B461" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="462" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A462" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B462" s="13">
+      <c r="A462" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B462" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="463" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A463" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B463" s="13">
+      <c r="A463" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B463" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="464" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A464" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B464" s="13">
+      <c r="A464" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B464" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="465" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A465" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B465" s="13">
+      <c r="A465" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B465" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="466" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A466" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B466" s="13">
+      <c r="A466" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B466" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="467" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A467" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B467" s="13">
+      <c r="A467" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B467" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="468" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A468" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B468" s="13">
+      <c r="A468" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B468" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="469" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A469" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B469" s="13">
+      <c r="A469" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B469" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="470" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A470" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B470" s="13">
+      <c r="A470" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B470" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="471" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A471" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B471" s="13">
+      <c r="A471" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B471" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="472" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A472" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B472" s="13">
+      <c r="A472" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B472" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="473" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A473" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B473" s="13">
+      <c r="A473" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B473" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="474" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A474" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B474" s="13">
+      <c r="A474" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B474" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="475" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A475" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B475" s="13">
+      <c r="A475" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B475" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="476" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A476" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B476" s="13">
+      <c r="A476" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B476" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="477" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A477" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B477" s="13">
+      <c r="A477" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B477" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="478" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A478" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B478" s="13">
+      <c r="A478" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B478" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="479" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A479" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B479" s="13">
+      <c r="A479" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B479" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="480" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A480" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B480" s="13">
+      <c r="A480" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B480" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="481" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A481" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B481" s="13">
+      <c r="A481" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B481" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="482" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A482" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B482" s="13">
+      <c r="A482" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B482" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="483" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A483" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B483" s="13">
+      <c r="A483" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B483" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="484" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A484" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B484" s="13">
+      <c r="A484" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B484" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="485" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A485" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B485" s="13">
+      <c r="A485" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B485" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="486" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A486" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B486" s="13">
+      <c r="A486" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B486" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="487" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A487" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B487" s="13">
+      <c r="A487" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B487" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="488" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A488" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B488" s="13">
+      <c r="A488" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B488" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="489" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A489" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B489" s="13">
+      <c r="A489" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B489" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="490" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A490" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B490" s="13">
+      <c r="A490" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B490" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="491" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A491" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B491" s="13">
+      <c r="A491" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B491" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="492" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A492" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B492" s="13">
+      <c r="A492" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B492" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="493" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A493" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B493" s="13">
+      <c r="A493" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B493" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="494" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A494" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B494" s="13">
+      <c r="A494" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B494" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="495" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A495" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B495" s="13">
+      <c r="A495" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B495" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="496" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A496" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B496" s="13">
+      <c r="A496" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B496" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="497" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A497" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B497" s="13">
+      <c r="A497" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B497" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="498" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A498" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B498" s="13">
+      <c r="A498" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B498" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="499" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A499" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B499" s="13">
+      <c r="A499" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B499" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="500" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A500" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B500" s="13">
+      <c r="A500" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B500" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="501" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A501" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B501" s="13">
+      <c r="A501" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B501" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="502" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A502" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B502" s="13">
+      <c r="A502" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B502" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="503" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A503" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B503" s="13">
+      <c r="A503" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B503" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="504" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A504" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B504" s="13">
+      <c r="A504" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B504" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="505" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A505" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B505" s="13">
+      <c r="A505" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B505" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="506" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A506" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B506" s="13">
+      <c r="A506" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B506" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="507" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A507" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B507" s="13">
+      <c r="A507" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B507" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="508" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A508" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B508" s="13">
+      <c r="A508" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B508" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="509" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A509" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B509" s="13">
+      <c r="A509" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B509" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="510" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A510" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B510" s="13">
+      <c r="A510" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B510" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="511" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A511" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B511" s="13">
+      <c r="A511" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B511" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="512" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A512" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B512" s="13">
+      <c r="A512" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B512" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="513" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A513" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B513" s="13">
+      <c r="A513" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B513" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="514" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A514" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B514" s="13">
+      <c r="A514" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B514" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="515" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A515" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B515" s="13">
+      <c r="A515" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B515" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="516" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A516" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B516" s="13">
+      <c r="A516" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B516" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="517" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A517" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B517" s="13">
+      <c r="A517" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B517" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="518" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A518" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B518" s="13">
+      <c r="A518" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B518" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="519" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A519" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B519" s="13">
+      <c r="A519" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B519" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="520" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A520" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B520" s="13">
+      <c r="A520" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B520" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="521" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A521" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B521" s="13">
+      <c r="A521" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B521" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="522" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A522" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B522" s="13">
+      <c r="A522" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B522" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="523" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A523" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B523" s="13">
+      <c r="A523" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B523" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="524" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A524" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B524" s="13">
+      <c r="A524" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B524" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="525" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A525" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B525" s="13">
+      <c r="A525" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B525" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="526" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A526" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B526" s="13">
+      <c r="A526" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B526" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="527" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A527" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B527" s="13">
+      <c r="A527" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B527" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="528" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A528" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B528" s="13">
+      <c r="A528" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B528" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="529" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A529" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B529" s="13">
+      <c r="A529" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B529" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="530" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A530" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B530" s="13">
+      <c r="A530" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B530" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="531" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A531" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B531" s="13">
+      <c r="A531" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B531" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="532" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A532" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B532" s="13">
+      <c r="A532" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B532" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="533" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A533" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B533" s="13">
+      <c r="A533" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B533" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="534" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A534" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B534" s="13">
+      <c r="A534" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B534" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="535" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A535" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B535" s="13">
+      <c r="A535" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B535" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="536" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A536" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B536" s="13">
+      <c r="A536" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B536" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="537" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A537" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B537" s="13">
+      <c r="A537" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B537" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="538" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A538" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B538" s="13">
+      <c r="A538" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B538" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="539" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A539" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B539" s="13">
+      <c r="A539" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B539" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="540" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A540" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B540" s="13">
+      <c r="A540" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B540" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="541" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A541" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B541" s="13">
+      <c r="A541" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B541" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="542" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A542" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B542" s="13">
+      <c r="A542" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B542" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="543" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A543" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B543" s="13">
+      <c r="A543" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B543" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="544" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A544" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B544" s="13">
+      <c r="A544" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B544" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="545" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A545" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B545" s="13">
+      <c r="A545" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B545" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="546" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A546" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B546" s="13">
+      <c r="A546" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B546" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="547" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A547" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B547" s="13">
+      <c r="A547" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B547" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="548" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A548" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B548" s="13">
+      <c r="A548" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B548" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="549" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A549" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B549" s="13">
+      <c r="A549" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B549" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="550" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A550" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B550" s="13">
+      <c r="A550" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B550" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="551" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A551" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B551" s="13">
+      <c r="A551" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B551" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="552" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A552" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B552" s="13">
+      <c r="A552" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B552" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="553" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A553" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B553" s="13">
+      <c r="A553" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B553" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="554" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A554" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B554" s="13">
+      <c r="A554" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B554" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="555" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A555" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B555" s="13">
+      <c r="A555" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B555" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="556" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A556" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B556" s="13">
+      <c r="A556" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B556" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="557" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A557" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B557" s="13">
+      <c r="A557" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B557" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="558" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A558" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B558" s="13">
+      <c r="A558" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B558" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="559" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A559" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B559" s="13">
+      <c r="A559" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B559" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="560" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A560" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B560" s="13">
+      <c r="A560" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B560" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="561" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A561" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B561" s="13">
+      <c r="A561" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B561" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="562" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A562" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B562" s="13">
+      <c r="A562" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B562" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="563" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A563" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B563" s="13">
+      <c r="A563" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B563" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="564" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A564" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B564" s="13">
+      <c r="A564" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B564" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="565" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A565" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B565" s="13">
+      <c r="A565" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B565" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="566" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A566" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B566" s="13">
+      <c r="A566" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B566" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="567" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A567" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B567" s="13">
+      <c r="A567" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B567" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="568" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A568" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B568" s="13">
+      <c r="A568" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B568" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="569" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A569" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B569" s="13">
+      <c r="A569" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B569" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="570" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A570" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B570" s="13">
+      <c r="A570" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B570" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="571" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A571" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B571" s="13">
+      <c r="A571" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B571" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="572" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A572" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B572" s="13">
+      <c r="A572" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B572" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="573" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A573" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B573" s="13">
+      <c r="A573" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B573" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="574" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A574" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B574" s="13">
+      <c r="A574" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B574" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="575" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A575" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B575" s="13">
+      <c r="A575" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B575" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="576" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A576" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B576" s="13">
+      <c r="A576" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B576" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="577" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A577" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B577" s="13">
+      <c r="A577" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B577" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="578" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A578" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B578" s="13">
+      <c r="A578" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B578" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="579" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A579" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B579" s="13">
+      <c r="A579" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B579" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="580" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A580" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B580" s="13">
+      <c r="A580" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B580" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="581" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A581" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B581" s="13">
+      <c r="A581" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B581" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="582" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A582" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B582" s="13">
+      <c r="A582" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B582" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="583" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A583" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B583" s="13">
+      <c r="A583" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B583" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="584" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A584" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B584" s="13">
+      <c r="A584" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B584" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="585" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A585" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B585" s="13">
+      <c r="A585" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B585" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="586" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A586" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B586" s="13">
+      <c r="A586" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B586" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="587" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A587" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B587" s="13">
+      <c r="A587" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B587" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="588" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A588" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B588" s="13">
+      <c r="A588" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B588" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="589" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A589" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B589" s="13">
+      <c r="A589" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B589" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="590" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A590" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B590" s="13">
+      <c r="A590" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B590" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="591" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A591" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B591" s="13">
+      <c r="A591" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B591" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="592" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A592" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B592" s="13">
+      <c r="A592" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B592" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="593" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A593" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B593" s="13">
+      <c r="A593" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B593" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="594" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A594" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B594" s="13">
+      <c r="A594" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B594" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="595" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A595" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B595" s="13">
+      <c r="A595" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B595" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="596" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A596" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B596" s="13">
+      <c r="A596" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B596" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="597" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A597" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B597" s="13">
+      <c r="A597" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B597" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="598" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A598" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B598" s="13">
+      <c r="A598" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B598" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="599" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A599" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B599" s="13">
+      <c r="A599" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B599" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="600" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A600" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B600" s="13">
+      <c r="A600" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B600" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="601" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A601" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B601" s="13">
+      <c r="A601" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B601" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="602" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A602" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B602" s="13">
+      <c r="A602" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B602" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="603" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A603" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B603" s="13">
+      <c r="A603" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B603" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="604" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A604" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B604" s="13">
+      <c r="A604" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B604" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="605" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A605" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B605" s="13">
+      <c r="A605" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B605" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="606" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A606" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B606" s="13">
+      <c r="A606" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B606" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="607" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A607" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B607" s="13">
+      <c r="A607" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B607" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="608" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A608" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B608" s="13">
+      <c r="A608" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B608" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="609" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A609" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B609" s="13">
+      <c r="A609" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B609" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="610" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A610" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B610" s="13">
+      <c r="A610" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B610" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="611" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A611" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B611" s="13">
+      <c r="A611" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B611" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="612" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A612" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B612" s="13">
+      <c r="A612" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B612" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="613" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A613" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B613" s="13">
+      <c r="A613" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B613" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="614" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A614" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B614" s="13">
+      <c r="A614" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B614" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="615" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A615" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B615" s="13">
+      <c r="A615" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B615" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="616" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A616" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B616" s="13">
+      <c r="A616" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B616" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="617" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A617" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B617" s="13">
+      <c r="A617" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B617" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="618" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A618" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B618" s="13">
+      <c r="A618" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B618" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="619" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A619" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B619" s="13">
+      <c r="A619" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B619" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="620" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A620" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B620" s="13">
+      <c r="A620" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B620" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="621" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A621" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B621" s="13">
+      <c r="A621" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B621" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="622" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A622" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B622" s="13">
+      <c r="A622" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B622" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="623" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A623" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B623" s="13">
+      <c r="A623" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B623" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="624" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A624" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B624" s="13">
+      <c r="A624" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B624" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="625" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A625" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B625" s="13">
+      <c r="A625" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B625" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="626" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A626" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B626" s="13">
+      <c r="A626" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B626" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="627" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A627" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B627" s="13">
+      <c r="A627" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B627" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="628" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A628" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B628" s="13">
+      <c r="A628" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B628" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="629" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A629" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B629" s="13">
+      <c r="A629" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B629" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="630" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A630" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B630" s="13">
+      <c r="A630" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B630" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="631" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A631" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B631" s="13">
+      <c r="A631" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B631" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="632" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A632" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B632" s="13">
+      <c r="A632" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B632" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="633" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A633" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B633" s="13">
+      <c r="A633" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B633" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="634" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A634" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B634" s="13">
+      <c r="A634" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B634" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="635" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A635" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B635" s="13">
+      <c r="A635" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B635" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="636" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A636" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B636" s="13">
+      <c r="A636" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B636" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="637" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A637" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B637" s="13">
+      <c r="A637" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B637" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="638" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A638" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B638" s="13">
+      <c r="A638" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B638" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="639" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A639" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B639" s="13">
+      <c r="A639" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B639" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="640" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A640" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B640" s="13">
+      <c r="A640" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B640" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="641" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A641" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B641" s="13">
+      <c r="A641" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B641" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="642" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A642" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B642" s="13">
+      <c r="A642" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B642" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="643" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A643" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B643" s="13">
+      <c r="A643" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B643" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="644" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A644" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B644" s="13">
+      <c r="A644" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B644" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="645" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A645" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B645" s="13">
+      <c r="A645" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B645" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="646" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A646" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B646" s="13">
+      <c r="A646" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B646" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="647" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A647" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B647" s="13">
+      <c r="A647" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B647" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="648" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A648" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B648" s="13">
+      <c r="A648" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B648" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="649" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A649" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B649" s="13">
+      <c r="A649" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B649" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="650" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A650" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B650" s="13">
+      <c r="A650" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B650" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="651" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A651" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B651" s="13">
+      <c r="A651" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B651" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="652" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A652" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B652" s="13">
+      <c r="A652" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B652" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="653" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A653" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B653" s="13">
+      <c r="A653" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B653" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="654" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A654" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B654" s="13">
+      <c r="A654" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B654" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="655" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A655" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B655" s="13">
+      <c r="A655" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B655" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="656" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A656" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B656" s="13">
+      <c r="A656" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B656" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="657" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A657" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B657" s="13">
+      <c r="A657" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B657" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="658" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A658" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B658" s="13">
+      <c r="A658" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B658" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="659" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A659" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B659" s="13">
+      <c r="A659" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B659" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="660" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A660" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B660" s="13">
+      <c r="A660" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B660" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="661" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A661" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B661" s="13">
+      <c r="A661" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B661" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="662" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A662" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B662" s="13">
+      <c r="A662" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B662" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="663" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A663" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B663" s="13">
+      <c r="A663" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B663" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="664" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A664" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B664" s="13">
+      <c r="A664" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B664" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="665" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A665" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B665" s="13">
+      <c r="A665" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B665" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="666" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A666" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B666" s="13">
+      <c r="A666" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B666" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="667" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A667" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B667" s="13">
+      <c r="A667" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B667" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="668" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A668" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B668" s="13">
+      <c r="A668" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B668" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="669" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A669" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B669" s="13">
+      <c r="A669" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B669" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="670" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A670" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B670" s="13">
+      <c r="A670" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B670" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="671" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A671" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B671" s="13">
+      <c r="A671" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B671" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="672" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A672" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B672" s="13">
+      <c r="A672" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B672" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="673" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A673" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B673" s="13">
+      <c r="A673" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B673" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="674" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A674" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B674" s="13">
+      <c r="A674" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B674" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="675" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A675" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B675" s="13">
+      <c r="A675" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B675" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="676" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A676" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B676" s="13">
+      <c r="A676" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B676" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="677" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A677" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B677" s="13">
+      <c r="A677" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B677" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="678" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A678" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B678" s="13">
+      <c r="A678" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B678" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="679" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A679" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B679" s="13">
+      <c r="A679" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B679" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="680" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A680" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B680" s="13">
+      <c r="A680" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B680" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="681" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A681" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B681" s="13">
+      <c r="A681" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B681" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="682" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A682" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B682" s="13">
+      <c r="A682" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B682" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="683" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A683" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B683" s="13">
+      <c r="A683" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B683" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="684" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A684" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B684" s="13">
+      <c r="A684" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B684" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="685" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A685" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B685" s="13">
+      <c r="A685" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B685" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="686" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A686" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B686" s="13">
+      <c r="A686" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B686" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="687" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A687" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B687" s="13">
+      <c r="A687" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B687" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="688" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A688" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B688" s="13">
+      <c r="A688" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B688" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="689" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A689" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B689" s="13">
+      <c r="A689" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B689" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="690" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A690" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B690" s="13">
+      <c r="A690" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B690" s="10">
         <v>333</v>
       </c>
     </row>
     <row r="691" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A691" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B691" s="13">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="692" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A692" s="11">
-        <v>2222</v>
-      </c>
-      <c r="B692" s="13">
+      <c r="A691" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B691" s="10">
         <v>333</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5998,47 +5946,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16">
-      <c r="A1" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="7" t="s">
+      <c r="A1" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A2" s="6">
+        <v>1234</v>
+      </c>
+      <c r="B2" s="6">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="7"/>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A3" s="6">
+        <v>1233</v>
+      </c>
+      <c r="B3" s="6">
+        <v>2</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D3" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A2" s="9">
-        <v>1234</v>
-      </c>
-      <c r="B2" s="9">
-        <v>1</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="10"/>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A3" s="9">
-        <v>1233</v>
-      </c>
-      <c r="B3" s="9">
-        <v>2</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>